--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
@@ -537,10 +537,10 @@
         <v>5.005563</v>
       </c>
       <c r="I2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>4.73814</v>
       </c>
       <c r="O2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q2">
         <v>2.63522869698</v>
@@ -567,10 +567,10 @@
         <v>23.71705827282</v>
       </c>
       <c r="S2">
-        <v>0.7001942203631676</v>
+        <v>0.7762144925490015</v>
       </c>
       <c r="T2">
-        <v>0.7001942203631676</v>
+        <v>0.7762144925490015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>5.005563</v>
       </c>
       <c r="I3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N3">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q3">
-        <v>1.0067855714</v>
+        <v>0.4959723166393334</v>
       </c>
       <c r="R3">
-        <v>9.0610701426</v>
+        <v>4.463750849754001</v>
       </c>
       <c r="S3">
-        <v>0.2675082580298189</v>
+        <v>0.1460901289211616</v>
       </c>
       <c r="T3">
-        <v>0.2675082580298189</v>
+        <v>0.1460901289211616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H4">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I4">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J4">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +679,22 @@
         <v>4.73814</v>
       </c>
       <c r="O4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q4">
-        <v>0.08795198697999999</v>
+        <v>0.22199291466</v>
       </c>
       <c r="R4">
-        <v>0.79156788282</v>
+        <v>1.99793623194</v>
       </c>
       <c r="S4">
-        <v>0.0233693087144307</v>
+        <v>0.06538867681570086</v>
       </c>
       <c r="T4">
-        <v>0.0233693087144307</v>
+        <v>0.06538867681570086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,22 +711,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H5">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N5">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q5">
-        <v>0.03360193806666667</v>
+        <v>0.04178094306866667</v>
       </c>
       <c r="R5">
-        <v>0.3024174426</v>
+        <v>0.3760284876180001</v>
       </c>
       <c r="S5">
-        <v>0.008928212892582841</v>
+        <v>0.01230670171413588</v>
       </c>
       <c r="T5">
-        <v>0.008928212892582841</v>
+        <v>0.01230670171413588</v>
       </c>
     </row>
   </sheetData>
